--- a/mapline_for_osx.xlsx
+++ b/mapline_for_osx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="超大字符集" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="237">
   <si>
     <t>up-min-l-ja</t>
   </si>
@@ -715,6 +715,18 @@
   </si>
   <si>
     <t>:0:ToppanBunkyuGothicPr6N.ttc</t>
+  </si>
+  <si>
+    <t>up-min-l-plane02</t>
+  </si>
+  <si>
+    <t>ut-min-l-plane02</t>
+  </si>
+  <si>
+    <t>up-min-r-plane02</t>
+  </si>
+  <si>
+    <t>ut-min-r-plane02</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2848,7 +2860,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>222</v>
       </c>
@@ -2857,6 +2869,58 @@
       </c>
       <c r="C145" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2873,7 +2937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/mapline_for_osx.xlsx
+++ b/mapline_for_osx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="254">
   <si>
     <t>up-min-l-ja</t>
   </si>
@@ -727,6 +727,57 @@
   </si>
   <si>
     <t>ut-min-r-plane02</t>
+  </si>
+  <si>
+    <t>otf-cjkaishob-h</t>
+  </si>
+  <si>
+    <t>otf-cjkaishob-v</t>
+  </si>
+  <si>
+    <t>otf-cjkaishoe-h</t>
+  </si>
+  <si>
+    <t>otf-cjkaishoe-v</t>
+  </si>
+  <si>
+    <t>otf-cjkaishor-h</t>
+  </si>
+  <si>
+    <t>otf-cjkaishor-v</t>
+  </si>
+  <si>
+    <t>otf-cjtuskub-h</t>
+  </si>
+  <si>
+    <t>FOT-TsukuAOldMinPr6N-B.otf</t>
+  </si>
+  <si>
+    <t>otf-cjtuskub-v</t>
+  </si>
+  <si>
+    <t>otf-cjtuskul-h</t>
+  </si>
+  <si>
+    <t>FOT-TsukuAOldMinPr6N-L.otf</t>
+  </si>
+  <si>
+    <t>otf-cjtuskul-v</t>
+  </si>
+  <si>
+    <t>otf-cjtuskur-h</t>
+  </si>
+  <si>
+    <t>FOT-TsukuAOldMinPr6N-R.otf</t>
+  </si>
+  <si>
+    <t>otf-cjtuskur-v</t>
+  </si>
+  <si>
+    <t>otf-cjudmarur-h</t>
+  </si>
+  <si>
+    <t>otf-cjudmarur-v</t>
   </si>
 </sst>
 </file>
@@ -1091,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:D149"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2850,30 +2901,34 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
-        <v>220</v>
-      </c>
-      <c r="B144" t="s">
-        <v>221</v>
-      </c>
-      <c r="C144" t="s">
-        <v>229</v>
-      </c>
+      <c r="A144" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D144" s="1"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
-        <v>222</v>
-      </c>
-      <c r="B145" t="s">
-        <v>223</v>
-      </c>
-      <c r="C145" t="s">
-        <v>229</v>
+      <c r="A145" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>131</v>
@@ -2885,7 +2940,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>131</v>
@@ -2898,34 +2953,184 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D148" s="1"/>
+      <c r="A148" t="s">
+        <v>220</v>
+      </c>
+      <c r="B148" t="s">
+        <v>221</v>
+      </c>
+      <c r="C148" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>143</v>
+      <c r="A149" t="s">
+        <v>222</v>
+      </c>
+      <c r="B149" t="s">
+        <v>223</v>
+      </c>
+      <c r="C149" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>237</v>
+      </c>
+      <c r="B150" t="s">
+        <v>221</v>
+      </c>
+      <c r="C150" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>238</v>
+      </c>
+      <c r="B151" t="s">
+        <v>223</v>
+      </c>
+      <c r="C151" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>239</v>
+      </c>
+      <c r="B152" t="s">
+        <v>221</v>
+      </c>
+      <c r="C152" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>240</v>
+      </c>
+      <c r="B153" t="s">
+        <v>223</v>
+      </c>
+      <c r="C153" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>241</v>
+      </c>
+      <c r="B154" t="s">
+        <v>221</v>
+      </c>
+      <c r="C154" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>242</v>
+      </c>
+      <c r="B155" t="s">
+        <v>223</v>
+      </c>
+      <c r="C155" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>243</v>
+      </c>
+      <c r="B156" t="s">
+        <v>221</v>
+      </c>
+      <c r="C156" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>245</v>
+      </c>
+      <c r="B157" t="s">
+        <v>223</v>
+      </c>
+      <c r="C157" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>246</v>
+      </c>
+      <c r="B158" t="s">
+        <v>221</v>
+      </c>
+      <c r="C158" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>248</v>
+      </c>
+      <c r="B159" t="s">
+        <v>223</v>
+      </c>
+      <c r="C159" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" t="s">
+        <v>221</v>
+      </c>
+      <c r="C160" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>251</v>
+      </c>
+      <c r="B161" t="s">
+        <v>223</v>
+      </c>
+      <c r="C161" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>252</v>
+      </c>
+      <c r="B162" t="s">
+        <v>221</v>
+      </c>
+      <c r="C162" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>253</v>
+      </c>
+      <c r="B163" t="s">
+        <v>223</v>
+      </c>
+      <c r="C163" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A143 A156:A1048576">
+  <conditionalFormatting sqref="A156:A1048576 A1:A143">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
